--- a/outputs-r202/f__Muribaculaceae.xlsx
+++ b/outputs-r202/f__Muribaculaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -609,6 +614,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -678,6 +688,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -747,6 +762,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -816,6 +836,11 @@
           <t>g__CAG-485</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>g__CAG-485</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -885,6 +910,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -954,6 +984,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1023,6 +1058,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1092,6 +1132,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1161,6 +1206,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1230,6 +1280,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1299,6 +1354,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1368,6 +1428,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1437,6 +1502,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1506,6 +1576,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1575,6 +1650,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1644,6 +1724,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1713,6 +1798,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1782,6 +1872,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1851,6 +1946,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1920,6 +2020,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1989,6 +2094,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2058,6 +2168,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2127,6 +2242,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2196,6 +2316,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2265,6 +2390,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2334,6 +2464,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2403,6 +2538,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2472,6 +2612,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2541,6 +2686,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2610,6 +2760,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2679,6 +2834,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2748,6 +2908,11 @@
           <t>g__CAG-485</t>
         </is>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>g__CAG-485</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2817,6 +2982,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2886,6 +3056,11 @@
           <t>g__Sodaliphilus</t>
         </is>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2951,6 +3126,11 @@
         <v>0.993500841533287</v>
       </c>
       <c r="U36" t="inlineStr">
+        <is>
+          <t>g__Sodaliphilus</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
         <is>
           <t>g__Sodaliphilus</t>
         </is>

--- a/outputs-r202/f__Muribaculaceae.xlsx
+++ b/outputs-r202/f__Muribaculaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3062,80 +3062,6 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>hRUG857.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.941806416847217e-09</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.002551020172736763</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0005225140690455785</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3.580139016947523e-10</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.247603518897919e-14</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.0005037093865182113</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.288346008131826e-14</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.993500841533287</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.002921912538307001</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.220241929143328e-14</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.993500841533287</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>g__Sodaliphilus</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>g__Sodaliphilus</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
